--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
     <t>Ror2</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H2">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.59684342164107</v>
+        <v>4.669265333333333</v>
       </c>
       <c r="N2">
-        <v>4.59684342164107</v>
+        <v>14.007796</v>
       </c>
       <c r="O2">
-        <v>0.911774508931127</v>
+        <v>0.8833113458668934</v>
       </c>
       <c r="P2">
-        <v>0.911774508931127</v>
+        <v>0.8833113458668933</v>
       </c>
       <c r="Q2">
-        <v>34.30456367129872</v>
+        <v>35.08857178060666</v>
       </c>
       <c r="R2">
-        <v>34.30456367129872</v>
+        <v>315.7971460254599</v>
       </c>
       <c r="S2">
-        <v>0.911774508931127</v>
+        <v>0.8763751015594327</v>
       </c>
       <c r="T2">
-        <v>0.911774508931127</v>
+        <v>0.8763751015594325</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,309 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H3">
+        <v>22.544385</v>
+      </c>
+      <c r="I3">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J3">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.017474</v>
+      </c>
+      <c r="N3">
+        <v>0.052422</v>
+      </c>
+      <c r="O3">
+        <v>0.003305655463074583</v>
+      </c>
+      <c r="P3">
+        <v>0.003305655463074583</v>
+      </c>
+      <c r="Q3">
+        <v>0.13131352783</v>
+      </c>
+      <c r="R3">
+        <v>1.18182175047</v>
+      </c>
+      <c r="S3">
+        <v>0.003279697646506887</v>
+      </c>
+      <c r="T3">
+        <v>0.003279697646506887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H4">
+        <v>22.544385</v>
+      </c>
+      <c r="I4">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J4">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.5993529999999999</v>
+      </c>
+      <c r="N4">
+        <v>1.798059</v>
+      </c>
+      <c r="O4">
+        <v>0.1133829986700321</v>
+      </c>
+      <c r="P4">
+        <v>0.1133829986700321</v>
+      </c>
+      <c r="Q4">
+        <v>4.504014927634999</v>
+      </c>
+      <c r="R4">
+        <v>40.536134348715</v>
+      </c>
+      <c r="S4">
+        <v>0.1124926532864165</v>
+      </c>
+      <c r="T4">
+        <v>0.1124926532864165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="H3">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.444801608586797</v>
-      </c>
-      <c r="N3">
-        <v>0.444801608586797</v>
-      </c>
-      <c r="O3">
-        <v>0.08822549106887308</v>
-      </c>
-      <c r="P3">
-        <v>0.08822549106887308</v>
-      </c>
-      <c r="Q3">
-        <v>3.319391961672368</v>
-      </c>
-      <c r="R3">
-        <v>3.319391961672368</v>
-      </c>
-      <c r="S3">
-        <v>0.08822549106887308</v>
-      </c>
-      <c r="T3">
-        <v>0.08822549106887308</v>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.178432</v>
+      </c>
+      <c r="I5">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J5">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.669265333333333</v>
+      </c>
+      <c r="N5">
+        <v>14.007796</v>
+      </c>
+      <c r="O5">
+        <v>0.8833113458668934</v>
+      </c>
+      <c r="P5">
+        <v>0.8833113458668933</v>
+      </c>
+      <c r="Q5">
+        <v>0.2777154506524444</v>
+      </c>
+      <c r="R5">
+        <v>2.499439055872</v>
+      </c>
+      <c r="S5">
+        <v>0.006936244307460713</v>
+      </c>
+      <c r="T5">
+        <v>0.006936244307460713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.178432</v>
+      </c>
+      <c r="I6">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J6">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.017474</v>
+      </c>
+      <c r="N6">
+        <v>0.052422</v>
+      </c>
+      <c r="O6">
+        <v>0.003305655463074583</v>
+      </c>
+      <c r="P6">
+        <v>0.003305655463074583</v>
+      </c>
+      <c r="Q6">
+        <v>0.001039306922666667</v>
+      </c>
+      <c r="R6">
+        <v>0.009353762304</v>
+      </c>
+      <c r="S6">
+        <v>2.595781656769598E-05</v>
+      </c>
+      <c r="T6">
+        <v>2.595781656769599E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.178432</v>
+      </c>
+      <c r="I7">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J7">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5993529999999999</v>
+      </c>
+      <c r="N7">
+        <v>1.798059</v>
+      </c>
+      <c r="O7">
+        <v>0.1133829986700321</v>
+      </c>
+      <c r="P7">
+        <v>0.1133829986700321</v>
+      </c>
+      <c r="Q7">
+        <v>0.03564791816533333</v>
+      </c>
+      <c r="R7">
+        <v>0.320831263488</v>
+      </c>
+      <c r="S7">
+        <v>0.0008903453836155596</v>
+      </c>
+      <c r="T7">
+        <v>0.0008903453836155597</v>
       </c>
     </row>
   </sheetData>
